--- a/book_details.xlsx
+++ b/book_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://0s4l8-my.sharepoint.com/personal/ahmad-raza1012_0s4l8_onmicrosoft_com/Documents/Documents/GitHub/Web-Scrapping-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_013137935B10D478E7583411595ED87656CD74F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17479D3E-6E27-4CBF-A3E1-C89CB2C2660F}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_66D977915BB0D611AFDB3A11595ED87656CD900C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D648FBDF-6D78-4A8F-9FB4-FADD09B44F46}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="211">
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>publication_date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="287">
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Publication_date</t>
   </si>
   <si>
     <t>Saul Bellow</t>
@@ -61,48 +61,72 @@
     <t>Philip Roth</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Houghton Mifflin</t>
+  </si>
+  <si>
+    <t>May 12, 1997</t>
+  </si>
+  <si>
+    <t>Theodore Dreiser</t>
+  </si>
+  <si>
+    <t>Crime fictionTragedy</t>
+  </si>
+  <si>
+    <t>Boni &amp; Liveright</t>
+  </si>
+  <si>
+    <t>December 17, 1925</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Political satire</t>
+  </si>
+  <si>
+    <t>Sāhityapr̲avarttaka Sahakaraṇa Saṅgham</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>John O'Hara</t>
+  </si>
+  <si>
+    <t>Ethnic relations</t>
+  </si>
+  <si>
+    <t>Penguin Books</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>Judy Blume</t>
+  </si>
+  <si>
+    <t>Contemporary realistic, coming-of-age</t>
+  </si>
+  <si>
+    <t>Bradbury Press</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
     <t>Data not Available</t>
   </si>
   <si>
-    <t>Houghton Mifflin</t>
-  </si>
-  <si>
-    <t>May 12, 1997</t>
-  </si>
-  <si>
-    <t>Theodore Dreiser</t>
-  </si>
-  <si>
-    <t>Crime fictionTragedy</t>
-  </si>
-  <si>
-    <t>Boni &amp; Liveright</t>
-  </si>
-  <si>
-    <t>December 17, 1925</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Political satire</t>
-  </si>
-  <si>
-    <t>Judy Blume</t>
-  </si>
-  <si>
-    <t>Contemporary realistic, coming-of-age</t>
-  </si>
-  <si>
-    <t>Bradbury Press</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
     <t>Flann O'Brien</t>
   </si>
   <si>
+    <t>Adaptations</t>
+  </si>
+  <si>
     <t>Longman Green &amp; Co</t>
   </si>
   <si>
@@ -118,6 +142,21 @@
     <t>New Directions</t>
   </si>
   <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>Raymond Chandler</t>
+  </si>
+  <si>
+    <t>Fiction</t>
+  </si>
+  <si>
+    <t>Feltrinelli</t>
+  </si>
+  <si>
+    <t>January 1, 2005</t>
+  </si>
+  <si>
     <t>Margaret Atwood</t>
   </si>
   <si>
@@ -145,6 +184,9 @@
     <t>Evelyn Waugh</t>
   </si>
   <si>
+    <t>Nuclear energy</t>
+  </si>
+  <si>
     <t>Chapman and Hall</t>
   </si>
   <si>
@@ -154,6 +196,9 @@
     <t>Thornton Wilder</t>
   </si>
   <si>
+    <t>Accident victims</t>
+  </si>
+  <si>
     <t>Albert &amp; Charles Boni</t>
   </si>
   <si>
@@ -163,6 +208,9 @@
     <t>Henry Roth</t>
   </si>
   <si>
+    <t>Jews</t>
+  </si>
+  <si>
     <t>Robert O. Ballou</t>
   </si>
   <si>
@@ -190,15 +238,24 @@
     <t>Little, Brown and Company</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>William Styron</t>
   </si>
   <si>
+    <t>Race</t>
+  </si>
+  <si>
     <t>1967</t>
   </si>
   <si>
     <t>Jonathan Franzen</t>
   </si>
   <si>
+    <t>dementia</t>
+  </si>
+  <si>
     <t>Farrar, Straus and Giroux</t>
   </si>
   <si>
@@ -211,9 +268,24 @@
     <t>Postmodern novel,paranoid fiction</t>
   </si>
   <si>
+    <t>Anthony Powell</t>
+  </si>
+  <si>
+    <t>England, fiction</t>
+  </si>
+  <si>
+    <t>Random House Inc (T)</t>
+  </si>
+  <si>
+    <t>May 31, 1995</t>
+  </si>
+  <si>
     <t>Nathanael West</t>
   </si>
   <si>
+    <t>Advice columnists</t>
+  </si>
+  <si>
     <t>May 16, 1939</t>
   </si>
   <si>
@@ -226,15 +298,36 @@
     <t>James Agee</t>
   </si>
   <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>Demco Media</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
     <t>Elizabeth Bowen</t>
   </si>
   <si>
+    <t>Fiction in English</t>
+  </si>
+  <si>
     <t>Knopf</t>
   </si>
   <si>
     <t>1938</t>
   </si>
   <si>
+    <t>Deliverance</t>
+  </si>
+  <si>
+    <t>Tyscot Records</t>
+  </si>
+  <si>
+    <t>October 1997</t>
+  </si>
+  <si>
     <t>John Fowles</t>
   </si>
   <si>
@@ -244,6 +337,9 @@
     <t>Jonathan Cape(UK)Little, Brown(US)</t>
   </si>
   <si>
+    <t>1969-01-01</t>
+  </si>
+  <si>
     <t>Doris Lessing</t>
   </si>
   <si>
@@ -268,6 +364,12 @@
     <t>Historical novel,satire,encyclopedic novel,science fiction,paranoid fiction</t>
   </si>
   <si>
+    <t>Beyond Zero Emissions Inc</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>F. Scott Fitzgerald</t>
   </si>
   <si>
@@ -277,7 +379,7 @@
     <t>Charles Scribner's Sons</t>
   </si>
   <si>
-    <t>Fiction</t>
+    <t>2016 April</t>
   </si>
   <si>
     <t>Chapman &amp; Hall(hardcover)Penguin Books(paperback)</t>
@@ -292,6 +394,33 @@
     <t>1940</t>
   </si>
   <si>
+    <t>Graham Greene</t>
+  </si>
+  <si>
+    <t>Edito-Service</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>Middle-aged men</t>
+  </si>
+  <si>
+    <t>Destino Ediciones</t>
+  </si>
+  <si>
+    <t>April 1, 2000</t>
+  </si>
+  <si>
+    <t>Love Write</t>
+  </si>
+  <si>
+    <t>Independently Published</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>V. S. Naipaul</t>
   </si>
   <si>
@@ -373,6 +502,15 @@
     <t>17 September 1954</t>
   </si>
   <si>
+    <t>J.R.R. Tolkien</t>
+  </si>
+  <si>
+    <t>Elves</t>
+  </si>
+  <si>
+    <t>Paw Prints 2008-08-11</t>
+  </si>
+  <si>
     <t>Walker Percy</t>
   </si>
   <si>
@@ -385,6 +523,9 @@
     <t>Kingsley Amis</t>
   </si>
   <si>
+    <t>College teachers</t>
+  </si>
+  <si>
     <t>Doubleday(US)Victor Gollancz(UK)</t>
   </si>
   <si>
@@ -406,9 +547,18 @@
     <t>1981</t>
   </si>
   <si>
+    <t>Paolo Volponi</t>
+  </si>
+  <si>
+    <t>Vallecchi</t>
+  </si>
+  <si>
     <t>Virginia Woolf</t>
   </si>
   <si>
+    <t>Married people</t>
+  </si>
+  <si>
     <t>Hogarth Press</t>
   </si>
   <si>
@@ -424,9 +574,6 @@
     <t>Olympia Press(Europe)Grove Press(US)</t>
   </si>
   <si>
-    <t>1959</t>
-  </si>
-  <si>
     <t>Richard Wright</t>
   </si>
   <si>
@@ -451,6 +598,12 @@
     <t>July 1, 1984</t>
   </si>
   <si>
+    <t>Rings</t>
+  </si>
+  <si>
+    <t>Galerie Mattar</t>
+  </si>
+  <si>
     <t>Jack Kerouac</t>
   </si>
   <si>
@@ -460,6 +613,15 @@
     <t>September 5, 1957</t>
   </si>
   <si>
+    <t>Jerzy N. Kosinski</t>
+  </si>
+  <si>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t>Immigrants</t>
+  </si>
+  <si>
     <t>G. P. Putnam's Sons</t>
   </si>
   <si>
@@ -481,13 +643,16 @@
     <t>Joan Didion</t>
   </si>
   <si>
+    <t>Motion picture industry</t>
+  </si>
+  <si>
     <t>Farrar Straus &amp; Giroux</t>
   </si>
   <si>
     <t>January 12, 1969</t>
   </si>
   <si>
-    <t>Graham Greene</t>
+    <t>Anti-clericalism</t>
   </si>
   <si>
     <t>Heinemann</t>
@@ -508,6 +673,15 @@
     <t>Harcourt Brace &amp; Company</t>
   </si>
   <si>
+    <t>Henry Christopher McCook</t>
+  </si>
+  <si>
+    <t>Creative Media Partners, LLC</t>
+  </si>
+  <si>
+    <t>Nov 11, 2018</t>
+  </si>
+  <si>
     <t>Richard Yates</t>
   </si>
   <si>
@@ -523,6 +697,9 @@
     <t>Paul Bowles</t>
   </si>
   <si>
+    <t>Americans</t>
+  </si>
+  <si>
     <t>John Lehmann</t>
   </si>
   <si>
@@ -541,6 +718,18 @@
     <t>March 31, 1969</t>
   </si>
   <si>
+    <t>Neal Stephenson</t>
+  </si>
+  <si>
+    <t>American Science fiction</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Sep 25, 2012</t>
+  </si>
+  <si>
     <t>Southern GothicnovelModernist novel</t>
   </si>
   <si>
@@ -565,9 +754,39 @@
     <t>Spy novel</t>
   </si>
   <si>
+    <t>Renouf Pub Co Ltd</t>
+  </si>
+  <si>
+    <t>1964-01-01</t>
+  </si>
+  <si>
+    <t>Wolf von Aichelburg</t>
+  </si>
+  <si>
+    <t>Wort und Welt Verlag</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>Zora Neale Hurston</t>
+  </si>
+  <si>
+    <t>African American women</t>
+  </si>
+  <si>
+    <t>HarperLuxe</t>
+  </si>
+  <si>
+    <t>Feb 04, 2014</t>
+  </si>
+  <si>
     <t>Chinua Achebe</t>
   </si>
   <si>
+    <t>20th century literature</t>
+  </si>
+  <si>
     <t>William Heinemann Ltd.</t>
   </si>
   <si>
@@ -583,6 +802,9 @@
     <t>J. B. Lippincott &amp; Co.</t>
   </si>
   <si>
+    <t>Oct 27, 2015</t>
+  </si>
+  <si>
     <t>Modernism</t>
   </si>
   <si>
@@ -613,6 +835,9 @@
     <t>Iris Murdoch</t>
   </si>
   <si>
+    <t>Classic Literature</t>
+  </si>
+  <si>
     <t>Chatto &amp; Windus</t>
   </si>
   <si>
@@ -620,6 +845,9 @@
   </si>
   <si>
     <t>Malcolm Lowry</t>
+  </si>
+  <si>
+    <t>Drama</t>
   </si>
   <si>
     <t>Reynal &amp; Hitchcock(UK)Jonathan Cape(UK)</t>
@@ -1017,16 +1245,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,836 +1333,830 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
         <v>123</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,97 +2164,97 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,402 +2265,379 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="D82" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="D83" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="D87" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="C93" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="D94" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="D96" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="C97" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="D97" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
       <c r="C98" t="s">
-        <v>202</v>
-      </c>
-      <c r="D98" t="s">
-        <v>13</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="D100" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="D101" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
